--- a/output/Allocation Rule/facility_data/allocation_rule_facility_demographics_3mi.xlsx
+++ b/output/Allocation Rule/facility_data/allocation_rule_facility_demographics_3mi.xlsx
@@ -32,7 +32,7 @@
     <t xml:space="preserve">pop</t>
   </si>
   <si>
-    <t xml:space="preserve">pop_sq_mile_1mi</t>
+    <t xml:space="preserve">pop_sq_mile_3mi</t>
   </si>
   <si>
     <t xml:space="preserve">rural_facility</t>
@@ -572,7 +572,7 @@
         <v>17.2954604417089</v>
       </c>
       <c r="R2" t="n">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="S2" t="n">
         <v>0.53</v>
@@ -634,7 +634,7 @@
         <v>50</v>
       </c>
       <c r="S3" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="4">
@@ -690,10 +690,10 @@
         <v>10.0456620426931</v>
       </c>
       <c r="R4" t="n">
-        <v>42.2727272727273</v>
+        <v>34.5454545454545</v>
       </c>
       <c r="S4" t="n">
-        <v>0.359090909090909</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="5">
@@ -752,7 +752,7 @@
         <v>30</v>
       </c>
       <c r="S5" t="n">
-        <v>0.404347826086957</v>
+        <v>0.373913043478261</v>
       </c>
     </row>
     <row r="6">
@@ -806,10 +806,10 @@
         <v>3.81139831130443</v>
       </c>
       <c r="R6" t="n">
-        <v>30</v>
+        <v>28.974358974359</v>
       </c>
       <c r="S6" t="n">
-        <v>0.384615384615385</v>
+        <v>0.361538461538462</v>
       </c>
     </row>
     <row r="7">
@@ -865,10 +865,10 @@
         <v>4.60492319253846</v>
       </c>
       <c r="R7" t="n">
-        <v>34.2857142857143</v>
+        <v>30</v>
       </c>
       <c r="S7" t="n">
-        <v>1.37142857142857</v>
+        <v>0.342857142857143</v>
       </c>
     </row>
     <row r="8">
@@ -924,10 +924,10 @@
         <v>2.87256612619637</v>
       </c>
       <c r="R8" t="n">
-        <v>128.75</v>
+        <v>62.5</v>
       </c>
       <c r="S8" t="n">
-        <v>0.5375</v>
+        <v>0.4375</v>
       </c>
     </row>
     <row r="9">
@@ -983,10 +983,10 @@
         <v>3.66226404603994</v>
       </c>
       <c r="R9" t="n">
-        <v>127</v>
+        <v>61</v>
       </c>
       <c r="S9" t="n">
-        <v>0.57</v>
+        <v>0.47</v>
       </c>
     </row>
     <row r="10">
@@ -1040,10 +1040,10 @@
         <v>9.60852285055576</v>
       </c>
       <c r="R10" t="n">
-        <v>21.3333333333333</v>
+        <v>20</v>
       </c>
       <c r="S10" t="n">
-        <v>0.266666666666667</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="11">
@@ -1099,7 +1099,7 @@
         <v>3.28359556469144</v>
       </c>
       <c r="R11" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="S11" t="n">
         <v>0.2</v>
